--- a/00-02 二维码/医院清单/清单内容/重疾绿通医院清单.xlsx
+++ b/00-02 二维码/医院清单/清单内容/重疾绿通医院清单.xlsx
@@ -6912,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
-      <selection activeCell="C783" sqref="C783"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
